--- a/Old Order Summary Acc/B.Brothers Garments/B.Brothers.xlsx
+++ b/Old Order Summary Acc/B.Brothers Garments/B.Brothers.xlsx
@@ -1264,8 +1264,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T360" sqref="T360"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q332" sqref="Q332:T341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Old Order Summary Acc/B.Brothers Garments/B.Brothers.xlsx
+++ b/Old Order Summary Acc/B.Brothers Garments/B.Brothers.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="258">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -779,6 +779,18 @@
   </si>
   <si>
     <t>11.9.21</t>
+  </si>
+  <si>
+    <t>18.09.21</t>
+  </si>
+  <si>
+    <t>f.terry</t>
+  </si>
+  <si>
+    <t>20.09.21</t>
+  </si>
+  <si>
+    <t>20.9.21</t>
   </si>
 </sst>
 </file>
@@ -1265,8 +1277,8 @@
   <dimension ref="A1:W369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q332" sqref="Q332:T341"/>
+      <pane ySplit="6" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E357" sqref="E357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13886,10 +13898,18 @@
       <c r="N346" s="3"/>
       <c r="O346" s="15"/>
       <c r="P346" s="7"/>
-      <c r="Q346" s="6"/>
-      <c r="R346" s="6"/>
-      <c r="S346" s="6"/>
-      <c r="T346" s="7"/>
+      <c r="Q346" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="R346" s="6">
+        <v>1744</v>
+      </c>
+      <c r="S346" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T346" s="7">
+        <v>863</v>
+      </c>
       <c r="U346" s="9"/>
       <c r="V346" s="13"/>
       <c r="W346" s="3"/>
@@ -13994,7 +14014,7 @@
       <c r="S350" s="10"/>
       <c r="T350" s="9">
         <f>SUM(T345:T349)</f>
-        <v>335</v>
+        <v>1198</v>
       </c>
       <c r="U350" s="9">
         <f>SUM(U345:U349)</f>
@@ -14002,7 +14022,7 @@
       </c>
       <c r="V350" s="13">
         <f>T350-P350+U350</f>
-        <v>-1665</v>
+        <v>-802</v>
       </c>
       <c r="W350" s="3"/>
     </row>
@@ -14066,10 +14086,18 @@
       <c r="N352" s="3"/>
       <c r="O352" s="15"/>
       <c r="P352" s="7"/>
-      <c r="Q352" s="10"/>
-      <c r="R352" s="10"/>
-      <c r="S352" s="10"/>
-      <c r="T352" s="9"/>
+      <c r="Q352" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="R352" s="10">
+        <v>1725</v>
+      </c>
+      <c r="S352" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="T352" s="9">
+        <v>497</v>
+      </c>
       <c r="U352" s="9"/>
       <c r="V352" s="13"/>
       <c r="W352" s="3"/>
@@ -14091,10 +14119,18 @@
       <c r="N353" s="3"/>
       <c r="O353" s="15"/>
       <c r="P353" s="7"/>
-      <c r="Q353" s="10"/>
-      <c r="R353" s="10"/>
-      <c r="S353" s="10"/>
-      <c r="T353" s="9"/>
+      <c r="Q353" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="R353" s="10">
+        <v>1744</v>
+      </c>
+      <c r="S353" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="T353" s="9">
+        <v>622</v>
+      </c>
       <c r="U353" s="9"/>
       <c r="V353" s="13"/>
       <c r="W353" s="3"/>
@@ -14174,7 +14210,7 @@
       <c r="S356" s="10"/>
       <c r="T356" s="9">
         <f>SUM(T351:T355)</f>
-        <v>0</v>
+        <v>1119</v>
       </c>
       <c r="U356" s="9">
         <f>SUM(U351:U355)</f>
@@ -14182,7 +14218,7 @@
       </c>
       <c r="V356" s="13">
         <f>T356-P356+U356</f>
-        <v>-1500</v>
+        <v>-381</v>
       </c>
       <c r="W356" s="3"/>
     </row>
@@ -14364,7 +14400,7 @@
       <c r="S363" s="10"/>
       <c r="T363" s="9">
         <f>+T350+T344+T326+T289+T284+T279+T272+T250+T260+T243+T224+T214+T185+T196+T179+T174+T163+T170+T138+T131+T110+T83+T90+T74+T67+T23+T17+T12</f>
-        <v>90554.2</v>
+        <v>91417.2</v>
       </c>
       <c r="U363" s="9">
         <f>+U350+U344+U326+U289+U284+U279+U272+U250+U260+U243+U224+U214+U185+U196+U179+U174+U163+U170+U138+U131+U110+U83+U90+U74+U67+U23+U17+U12</f>
@@ -14372,7 +14408,7 @@
       </c>
       <c r="V363" s="9">
         <f>SUM(V7:V362)</f>
-        <v>-4068.7700000000004</v>
+        <v>-2086.7700000000004</v>
       </c>
       <c r="W363" s="3"/>
     </row>

--- a/Old Order Summary Acc/B.Brothers Garments/B.Brothers.xlsx
+++ b/Old Order Summary Acc/B.Brothers Garments/B.Brothers.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="259">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -791,6 +791,9 @@
   </si>
   <si>
     <t>20.9.21</t>
+  </si>
+  <si>
+    <t>22.09.21</t>
   </si>
 </sst>
 </file>
@@ -1277,8 +1280,8 @@
   <dimension ref="A1:W369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E357" sqref="E357"/>
+      <pane ySplit="6" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q352" sqref="Q352:T355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14152,10 +14155,18 @@
       <c r="N354" s="3"/>
       <c r="O354" s="15"/>
       <c r="P354" s="7"/>
-      <c r="Q354" s="10"/>
-      <c r="R354" s="10"/>
-      <c r="S354" s="10"/>
-      <c r="T354" s="9"/>
+      <c r="Q354" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="R354" s="10">
+        <v>1752</v>
+      </c>
+      <c r="S354" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="T354" s="9">
+        <v>360</v>
+      </c>
       <c r="U354" s="9"/>
       <c r="V354" s="13"/>
       <c r="W354" s="3"/>
@@ -14177,11 +14188,21 @@
       <c r="N355" s="3"/>
       <c r="O355" s="15"/>
       <c r="P355" s="7"/>
-      <c r="Q355" s="10"/>
-      <c r="R355" s="10"/>
-      <c r="S355" s="10"/>
-      <c r="T355" s="9"/>
-      <c r="U355" s="9"/>
+      <c r="Q355" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="R355" s="10">
+        <v>1753</v>
+      </c>
+      <c r="S355" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="T355" s="9">
+        <v>18</v>
+      </c>
+      <c r="U355" s="9">
+        <v>3</v>
+      </c>
       <c r="V355" s="13"/>
       <c r="W355" s="3"/>
     </row>
@@ -14210,15 +14231,15 @@
       <c r="S356" s="10"/>
       <c r="T356" s="9">
         <f>SUM(T351:T355)</f>
-        <v>1119</v>
+        <v>1497</v>
       </c>
       <c r="U356" s="9">
         <f>SUM(U351:U355)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V356" s="13">
         <f>T356-P356+U356</f>
-        <v>-381</v>
+        <v>0</v>
       </c>
       <c r="W356" s="3"/>
     </row>
@@ -14408,7 +14429,7 @@
       </c>
       <c r="V363" s="9">
         <f>SUM(V7:V362)</f>
-        <v>-2086.7700000000004</v>
+        <v>-1705.7700000000004</v>
       </c>
       <c r="W363" s="3"/>
     </row>
